--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2070577.205950254</v>
+        <v>-2073160.238019982</v>
       </c>
     </row>
     <row r="7">
@@ -659,16 +659,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>217.6746264455229</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>255.4387978729999</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>98.96291768620114</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>4.387592552265667</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>171.7980216513631</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.3107267886851923</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>40.881392799187</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,7 +1108,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>113.5103646250813</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>269.6425323314724</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>168.1158122680976</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>149.8383425293637</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>82.70057996958644</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1534,13 +1534,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>27.02919805176074</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>80.08971311158692</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>170.945761879057</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105417</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="18">
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>50.06209150957699</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="21">
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428179</v>
+        <v>83.06560892428388</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101216</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.799772605715943</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856548</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712595</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>171.0385136149756</v>
+        <v>171.0385136149758</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4533545316661</v>
+        <v>158.4533545316663</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>139.8220064512508</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>137.6404960796077</v>
       </c>
       <c r="F28" t="n">
-        <v>117.2403075398317</v>
+        <v>136.6275814559697</v>
       </c>
       <c r="G28" t="n">
-        <v>156.7306717253071</v>
+        <v>156.7306717253073</v>
       </c>
       <c r="H28" t="n">
-        <v>131.5012462792622</v>
+        <v>131.5012462792624</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.47236975160401</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.58178014315998</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>172.2328194346829</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>208.6119837603266</v>
+        <v>69.10443713956523</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3910078222825</v>
+        <v>277.3910078222826</v>
       </c>
       <c r="V28" t="n">
-        <v>243.3441767568663</v>
+        <v>243.3441767568665</v>
       </c>
       <c r="W28" t="n">
-        <v>277.7295317696293</v>
+        <v>277.7295317696295</v>
       </c>
       <c r="X28" t="n">
-        <v>216.9161888220754</v>
+        <v>216.9161888220756</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7911867851331</v>
+        <v>209.7911867851333</v>
       </c>
     </row>
     <row r="29">
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3794,7 +3794,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4192,16 +4192,16 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1384.829779622646</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C2" t="n">
-        <v>1384.829779622646</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1164.956419576664</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>779.1681669784195</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784195</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296687</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923659</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W2" t="n">
-        <v>2535.034709923659</v>
+        <v>2751.318417769983</v>
       </c>
       <c r="X2" t="n">
-        <v>2161.568951662579</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y2" t="n">
-        <v>1771.429619686768</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686077</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080131</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>310.0549803959802</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959802</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959802</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959802</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
         <v>310.0549803959802</v>
@@ -4483,55 +4483,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.3348699696229</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
         <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596506</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181856</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181856</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>820.9244627008106</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>599.1578472703367</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U4" t="n">
-        <v>310.0549803959802</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="V4" t="n">
-        <v>310.0549803959802</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="W4" t="n">
-        <v>310.0549803959802</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="X4" t="n">
-        <v>310.0549803959802</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="Y4" t="n">
-        <v>310.0549803959802</v>
+        <v>604.8580214762837</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1285.277735635578</v>
+        <v>1458.811090838975</v>
       </c>
       <c r="C5" t="n">
-        <v>916.3152186951659</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1089.848573898563</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>704.0603213003187</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073141</v>
+        <v>697.1148205511153</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>282.0423703961117</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.291956166054</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.314208550276</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.314208550276</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.251321206705</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.482665936591</v>
+        <v>2609.016021139988</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.016907675511</v>
+        <v>2235.550262878908</v>
       </c>
       <c r="Y5" t="n">
-        <v>1671.877575699699</v>
+        <v>1845.410930903096</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>479.6639240396553</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1886.000211927698</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1694.314327754524</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1472.54771232405</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1472.54771232405</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1217.863224118163</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>928.4460540812028</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>700.4565031831854</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>479.6639240396553</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2005.586939522201</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="C8" t="n">
-        <v>1636.624422581789</v>
+        <v>1908.990616856004</v>
       </c>
       <c r="D8" t="n">
-        <v>1278.358723975039</v>
+        <v>1550.724918249253</v>
       </c>
       <c r="E8" t="n">
-        <v>892.5704713767946</v>
+        <v>1164.936665651009</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>753.9507608614015</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>338.8783107063979</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3155.791869823214</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U8" t="n">
-        <v>3155.791869823214</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V8" t="n">
-        <v>3155.791869823214</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W8" t="n">
-        <v>3155.791869823214</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="X8" t="n">
-        <v>2782.326111562134</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="Y8" t="n">
-        <v>2392.186779586323</v>
+        <v>2277.953133796415</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4899,34 +4899,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>923.9108438165264</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C10" t="n">
-        <v>754.9746608886195</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1686.112229705249</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1686.112229705249</v>
       </c>
       <c r="U10" t="n">
-        <v>1843.758608725274</v>
+        <v>1397.009362830893</v>
       </c>
       <c r="V10" t="n">
-        <v>1843.758608725274</v>
+        <v>1397.009362830893</v>
       </c>
       <c r="W10" t="n">
-        <v>1554.341438688313</v>
+        <v>1107.592192793932</v>
       </c>
       <c r="X10" t="n">
-        <v>1326.351887790296</v>
+        <v>879.6026418959145</v>
       </c>
       <c r="Y10" t="n">
-        <v>1105.559308646766</v>
+        <v>879.6026418959145</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5203,7 +5203,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5221,7 +5221,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487567</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713841</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273902</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273902</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706076</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427007</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797186</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797742</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>2024.390058741045</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1735.314832085242</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V16" t="n">
-        <v>1480.630343879355</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W16" t="n">
-        <v>1191.213173842395</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>963.2236229443774</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008473</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="17">
@@ -5501,64 +5501,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168608</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.89930448767</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>580.89930448767</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>530.331535286077</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036839</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179093</v>
       </c>
     </row>
     <row r="20">
@@ -5732,61 +5732,61 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852888</v>
@@ -5795,7 +5795,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400713</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121665</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121665</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121665</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121665</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270444</v>
+        <v>177.7213185270465</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703122</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400708</v>
+        <v>653.7474797708869</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121639</v>
+        <v>484.81129684298</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121639</v>
+        <v>484.81129684298</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121639</v>
+        <v>484.81129684298</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121639</v>
+        <v>484.81129684298</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270439</v>
+        <v>317.61519755786</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885521</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138406</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703105</v>
+        <v>835.3959446011266</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6200,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>663.4384611046056</v>
+        <v>1036.491134032485</v>
       </c>
       <c r="C28" t="n">
-        <v>503.3845676382762</v>
+        <v>876.4372405661555</v>
       </c>
       <c r="D28" t="n">
-        <v>503.3845676382762</v>
+        <v>735.2028906153971</v>
       </c>
       <c r="E28" t="n">
-        <v>503.3845676382762</v>
+        <v>596.1720864945812</v>
       </c>
       <c r="F28" t="n">
-        <v>384.9600145677389</v>
+        <v>458.1644284582483</v>
       </c>
       <c r="G28" t="n">
-        <v>226.6462047441963</v>
+        <v>299.8506186347055</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>167.021076938481</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>182.7582133795878</v>
+        <v>182.7582133795876</v>
       </c>
       <c r="K28" t="n">
-        <v>453.1530078064185</v>
+        <v>453.1530078064181</v>
       </c>
       <c r="L28" t="n">
-        <v>852.2571338836507</v>
+        <v>852.25713388365</v>
       </c>
       <c r="M28" t="n">
         <v>1282.972368515977</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.087772077278</v>
+        <v>1709.087772077277</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.322584687555</v>
+        <v>2087.322584687554</v>
       </c>
       <c r="P28" t="n">
-        <v>2388.703572162406</v>
+        <v>2388.703572162404</v>
       </c>
       <c r="Q28" t="n">
-        <v>2516.607338790597</v>
+        <v>2516.607338790595</v>
       </c>
       <c r="R28" t="n">
-        <v>2458.443924504577</v>
+        <v>2516.607338790595</v>
       </c>
       <c r="S28" t="n">
-        <v>2284.471379621059</v>
+        <v>2516.607338790595</v>
       </c>
       <c r="T28" t="n">
-        <v>2073.752204105578</v>
+        <v>2446.804877033458</v>
       </c>
       <c r="U28" t="n">
-        <v>1793.559266911353</v>
+        <v>2166.611939839233</v>
       </c>
       <c r="V28" t="n">
-        <v>1547.757068167043</v>
+        <v>1920.809741094924</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.22218759166</v>
+        <v>1640.27486051954</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.11492615522</v>
+        <v>1421.1675990831</v>
       </c>
       <c r="Y28" t="n">
-        <v>836.2046364732678</v>
+        <v>1209.257309401147</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319319</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942649</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580108</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6622,7 +6622,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L31" t="n">
         <v>898.265941231132</v>
@@ -6640,7 +6640,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
         <v>2596.781734931273</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,25 +7011,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7175,7 +7175,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345473</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7354,16 +7354,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>137.0084151751601</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,19 +22595,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>93.80217084441307</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22711,10 +22711,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>90.80610764524076</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>281.8242456533472</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -23422,13 +23422,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>119.4047645948084</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.4949402405079</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>46.45968844823122</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>98.55338150863537</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856546</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219421</v>
+        <v>57.22910392193989</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856545</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405082</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>72.11969353038501</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>139.8220064512506</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>137.6404960796075</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>19.38727391613779</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.47236975160382</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.58178014316016</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>172.2328194346831</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>139.5075466207615</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65808.19547374989</v>
+        <v>65808.19547374987</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="E2" t="n">
         <v>80714.65996900061</v>
@@ -26326,34 +26326,34 @@
         <v>80714.65996900057</v>
       </c>
       <c r="G2" t="n">
+        <v>80714.65996900057</v>
+      </c>
+      <c r="H2" t="n">
         <v>80714.65996900061</v>
-      </c>
-      <c r="H2" t="n">
-        <v>80714.65996900058</v>
       </c>
       <c r="I2" t="n">
         <v>80714.65996900057</v>
       </c>
       <c r="J2" t="n">
-        <v>81217.80383555169</v>
+        <v>81217.80383555163</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642844</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="M2" t="n">
         <v>82104.1769864284</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.17698642841</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="P2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.1769864284</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>5.145141455743993e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>224565.9756508469</v>
+        <v>224565.9756508466</v>
       </c>
       <c r="K3" t="n">
-        <v>12392.9447400624</v>
+        <v>12392.94474006255</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>7034.773253569358</v>
+        <v>7034.773253569192</v>
       </c>
       <c r="P3" t="n">
-        <v>12392.94474006244</v>
+        <v>12392.94474006256</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>584.6469890061234</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820636</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820631</v>
+        <v>93403.78684820642</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26430,31 +26430,31 @@
         <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685509</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685511</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685506</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>17110.24080442837</v>
+        <v>17110.24080442834</v>
       </c>
       <c r="K4" t="n">
+        <v>22207.61133994852</v>
+      </c>
+      <c r="L4" t="n">
         <v>22207.61133994851</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
+        <v>22207.61133994854</v>
+      </c>
+      <c r="N4" t="n">
         <v>22207.61133994852</v>
       </c>
-      <c r="M4" t="n">
-        <v>22207.61133994853</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22207.61133994851</v>
-      </c>
       <c r="O4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994852</v>
       </c>
       <c r="P4" t="n">
         <v>22207.61133994853</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1371455.137804242</v>
+        <v>-1371862.537342059</v>
       </c>
       <c r="C6" t="n">
         <v>-119233.5504231713</v>
       </c>
       <c r="D6" t="n">
-        <v>-119233.5504231713</v>
+        <v>-119233.5504231712</v>
       </c>
       <c r="E6" t="n">
-        <v>-360037.0837391167</v>
+        <v>-360071.8216645527</v>
       </c>
       <c r="F6" t="n">
-        <v>-34624.62193176158</v>
+        <v>-34659.35985719728</v>
       </c>
       <c r="G6" t="n">
-        <v>-34624.62193176158</v>
+        <v>-34659.35985719737</v>
       </c>
       <c r="H6" t="n">
-        <v>-34624.62193176161</v>
+        <v>-34659.35985719728</v>
       </c>
       <c r="I6" t="n">
-        <v>-34624.62193176161</v>
+        <v>-34659.35985719727</v>
       </c>
       <c r="J6" t="n">
-        <v>-262320.2003844486</v>
+        <v>-262342.3597132202</v>
       </c>
       <c r="K6" t="n">
-        <v>-55660.49494749791</v>
+        <v>-55660.49494749807</v>
       </c>
       <c r="L6" t="n">
-        <v>-43267.55020743547</v>
+        <v>-43267.55020743544</v>
       </c>
       <c r="M6" t="n">
-        <v>-128322.5781429473</v>
+        <v>-128322.5781429475</v>
       </c>
       <c r="N6" t="n">
-        <v>-43267.5502074355</v>
+        <v>-43267.55020743552</v>
       </c>
       <c r="O6" t="n">
-        <v>-50302.32346100492</v>
+        <v>-50302.32346100474</v>
       </c>
       <c r="P6" t="n">
-        <v>-55660.49494749802</v>
+        <v>-55660.49494749809</v>
       </c>
     </row>
   </sheetData>
@@ -26698,34 +26698,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.815519006528818e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="L2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203972</v>
-      </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961468</v>
       </c>
       <c r="K2" t="n">
-        <v>15.49118092507801</v>
+        <v>15.49118092507819</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.010341348159791e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961698</v>
+        <v>8.79346656696149</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507805</v>
+        <v>15.4911809250782</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961468</v>
       </c>
       <c r="P2" t="n">
-        <v>15.49118092507801</v>
+        <v>15.49118092507819</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>122.8097427359574</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>108.8770349994906</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>48.05075987086033</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,7 +27828,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>105.0742887270135</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>24.96523205584811</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>35.8021578715225</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>39.93068280207817</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>203.5112582360264</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>6.431426819679991e-14</v>
       </c>
     </row>
     <row r="18">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>8.657689949569219e-14</v>
       </c>
     </row>
     <row r="21">
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="C28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="D28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="E28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="F28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="G28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="H28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="I28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="J28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="K28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="L28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="M28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="N28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="O28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="P28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="Q28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="R28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="S28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="T28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="U28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="V28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="W28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="X28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
       <c r="Y28" t="n">
-        <v>8.793466566961705</v>
+        <v>8.793466566961527</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30514,7 +30514,7 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,22 +31847,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>377.6350660745956</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,19 +32072,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>732.4825987614915</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,10 +32096,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32242,7 +32242,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
         <v>981.2715114159425</v>
@@ -32315,28 +32315,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,22 +32549,22 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>302.967544750805</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33199,7 +33199,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33494,16 +33494,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33895,7 +33895,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33910,7 +33910,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669223</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,34 +34205,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
         <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,22 +35495,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>235.5010321525773</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>590.3485648394733</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>160.8335108287866</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>89.83994982991507</v>
+        <v>89.83994982991489</v>
       </c>
       <c r="K28" t="n">
-        <v>273.1260549765966</v>
+        <v>273.1260549765964</v>
       </c>
       <c r="L28" t="n">
-        <v>403.1354808860931</v>
+        <v>403.1354808860929</v>
       </c>
       <c r="M28" t="n">
-        <v>435.0658935680068</v>
+        <v>435.0658935680066</v>
       </c>
       <c r="N28" t="n">
-        <v>430.4195995568691</v>
+        <v>430.4195995568689</v>
       </c>
       <c r="O28" t="n">
-        <v>382.0553662730071</v>
+        <v>382.0553662730069</v>
       </c>
       <c r="P28" t="n">
-        <v>304.4252398735866</v>
+        <v>304.4252398735865</v>
       </c>
       <c r="Q28" t="n">
-        <v>129.19572386686</v>
+        <v>129.1957238668599</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
